--- a/example_data/EPA/label_corrected/001021-02803-20170411_2018-12-08_003035.xlsx
+++ b/example_data/EPA/label_corrected/001021-02803-20170411_2018-12-08_003035.xlsx
@@ -787,7 +787,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -970,7 +970,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
